--- a/2. Anexo Rastreo Comercial.xlsx
+++ b/2. Anexo Rastreo Comercial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Trabajos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19141300-AC7C-4CB3-84B8-2347B0AC6197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0CEE39D-95CA-4CAC-A671-931B04D374FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="3630" windowWidth="18030" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">IDEA </t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>RESULTADOS</t>
+  </si>
+  <si>
+    <t>NOMBRE DE LA APLICACIÓN WEB</t>
   </si>
   <si>
     <t>En que consiste ?</t>
@@ -50,30 +53,12 @@
   <si>
     <t>Proveedores</t>
   </si>
-  <si>
-    <t>LJEZ.com</t>
-  </si>
-  <si>
-    <t>La idea es desarrollar una plataforma web interactiva para el aprendizaje de idiomas. ¿En qué consiste? La plataforma consistirá en proporcionar contenido diverso y atractivo para el aprendizaje de idiomas, como lecciones de gramática, ejercicios prácticos, actividades de inmersión lingüística, entre otros. Estará diseñada para ser intuitiva y amigable para los usuarios</t>
-  </si>
-  <si>
-    <t>Los principales beneficiarios serán estudiantes de Cartagena y personas en general interesadas en aprender idiomas. Además, las instituciones educativas y el Ministerio de Educación pueden beneficiarse al abordar la baja tasa de bilingüismo en la región.</t>
-  </si>
-  <si>
-    <t>Las posibles competencias podrían ser plataformas de aprendizaje de idiomas en línea como Duolingo, Babbel, Rosetta Stone, entre otras.</t>
-  </si>
-  <si>
-    <t>Equipo de desarrollo web (programadores, diseñadores, expertos en pedagogía de idiomas) Infraestructura de hosting web y servidores Contenido multimedia (audio, video, imágenes) Herramientas de desarrollo web y bases de datos</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,17 +73,6 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,6 +155,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -191,27 +166,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,9 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -451,96 +403,86 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="18" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="2:4" ht="18" customHeight="1">
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="2:4" ht="18" customHeight="1">
+      <c r="B5" s="5"/>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="2:4" ht="18" customHeight="1">
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="2:4" ht="18" customHeight="1">
+      <c r="B7" s="5"/>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="2:4" ht="18" customHeight="1">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="2:4" ht="18" customHeight="1">
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="2:4" ht="18" customHeight="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:4" ht="18" customHeight="1">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="2:4" ht="18" customHeight="1">
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="2:4" ht="18" customHeight="1">
+      <c r="B13" s="5"/>
+      <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="18" customHeight="1">
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="2:4" ht="18" customHeight="1">
-      <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="18" customHeight="1">
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="2:4" ht="18" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="18" customHeight="1">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="2:4" ht="18" customHeight="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="2:4" ht="18" customHeight="1">
-      <c r="B10" s="4"/>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="18" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="2:4" ht="18" customHeight="1">
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="2:4" ht="18" customHeight="1">
-      <c r="B13" s="4"/>
-      <c r="C13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" ht="18" customHeight="1">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="2:4" ht="18" customHeight="1">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="2:4" ht="18" customHeight="1"/>
     <row r="17" ht="18" customHeight="1"/>
@@ -1542,6 +1484,6 @@
     <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>